--- a/test/test_1.xlsx
+++ b/test/test_1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t xml:space="preserve">A</t>
   </si>
@@ -38,6 +38,28 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">text
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">boldText</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -48,11 +70,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -74,6 +97,14 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,7 +149,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -129,6 +160,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -151,7 +186,7 @@
   <dimension ref="B1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -215,12 +250,15 @@
         <v>1.15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
